--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H2">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I2">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J2">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2513533333333333</v>
+        <v>0.022752</v>
       </c>
       <c r="N2">
-        <v>0.75406</v>
+        <v>0.068256</v>
       </c>
       <c r="O2">
-        <v>0.03667605220036371</v>
+        <v>0.003897602285935517</v>
       </c>
       <c r="P2">
-        <v>0.03667605220036371</v>
+        <v>0.003897602285935517</v>
       </c>
       <c r="Q2">
-        <v>0.04222601944888888</v>
+        <v>0.004681716959999999</v>
       </c>
       <c r="R2">
-        <v>0.38003417504</v>
+        <v>0.04213545263999999</v>
       </c>
       <c r="S2">
-        <v>0.0004006477223470436</v>
+        <v>4.24713057487973E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004006477223470436</v>
+        <v>4.24713057487973E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H3">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I3">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J3">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.713628</v>
       </c>
       <c r="O3">
-        <v>0.6183668198604962</v>
+        <v>0.7259825591205727</v>
       </c>
       <c r="P3">
-        <v>0.6183668198604962</v>
+        <v>0.7259825591205727</v>
       </c>
       <c r="Q3">
-        <v>0.7119405659946667</v>
+        <v>0.8720348076466669</v>
       </c>
       <c r="R3">
-        <v>6.407465093952001</v>
+        <v>7.84831326882</v>
       </c>
       <c r="S3">
-        <v>0.006755014323750896</v>
+        <v>0.007910870574960011</v>
       </c>
       <c r="T3">
-        <v>0.006755014323750896</v>
+        <v>0.007910870574960011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H4">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I4">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J4">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.364107333333334</v>
+        <v>1.576807</v>
       </c>
       <c r="N4">
-        <v>7.092322</v>
+        <v>4.730421</v>
       </c>
       <c r="O4">
-        <v>0.3449571279391401</v>
+        <v>0.2701198385934918</v>
       </c>
       <c r="P4">
-        <v>0.3449571279391401</v>
+        <v>0.2701198385934918</v>
       </c>
       <c r="Q4">
-        <v>0.3971574234275556</v>
+        <v>0.3244622044016666</v>
       </c>
       <c r="R4">
-        <v>3.574416810848</v>
+        <v>2.920159839615</v>
       </c>
       <c r="S4">
-        <v>0.003768297821727488</v>
+        <v>0.002943435838776539</v>
       </c>
       <c r="T4">
-        <v>0.003768297821727487</v>
+        <v>0.002943435838776539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.002559</v>
       </c>
       <c r="I5">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J5">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2513533333333333</v>
+        <v>0.022752</v>
       </c>
       <c r="N5">
-        <v>0.75406</v>
+        <v>0.068256</v>
       </c>
       <c r="O5">
-        <v>0.03667605220036371</v>
+        <v>0.003897602285935517</v>
       </c>
       <c r="P5">
-        <v>0.03667605220036371</v>
+        <v>0.003897602285935517</v>
       </c>
       <c r="Q5">
-        <v>0.08399884883777776</v>
+        <v>0.007603407455999999</v>
       </c>
       <c r="R5">
-        <v>0.75598963954</v>
+        <v>0.06843066710399999</v>
       </c>
       <c r="S5">
-        <v>0.0007969954995962762</v>
+        <v>6.897611401020301E-05</v>
       </c>
       <c r="T5">
-        <v>0.0007969954995962762</v>
+        <v>6.897611401020302E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.002559</v>
       </c>
       <c r="I6">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J6">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>12.713628</v>
       </c>
       <c r="O6">
-        <v>0.6183668198604962</v>
+        <v>0.7259825591205727</v>
       </c>
       <c r="P6">
-        <v>0.6183668198604962</v>
+        <v>0.7259825591205727</v>
       </c>
       <c r="Q6">
         <v>1.416240241561334</v>
@@ -821,10 +821,10 @@
         <v>12.746162174052</v>
       </c>
       <c r="S6">
-        <v>0.01343753056725089</v>
+        <v>0.01284775923598379</v>
       </c>
       <c r="T6">
-        <v>0.01343753056725089</v>
+        <v>0.01284775923598379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.002559</v>
       </c>
       <c r="I7">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J7">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.364107333333334</v>
+        <v>1.576807</v>
       </c>
       <c r="N7">
-        <v>7.092322</v>
+        <v>4.730421</v>
       </c>
       <c r="O7">
-        <v>0.3449571279391401</v>
+        <v>0.2701198385934918</v>
       </c>
       <c r="P7">
-        <v>0.3449571279391401</v>
+        <v>0.2701198385934918</v>
       </c>
       <c r="Q7">
-        <v>0.7900523613331111</v>
+        <v>0.5269473497043332</v>
       </c>
       <c r="R7">
-        <v>7.110471251998</v>
+        <v>4.742526147338999</v>
       </c>
       <c r="S7">
-        <v>0.007496152448993001</v>
+        <v>0.004780327857071298</v>
       </c>
       <c r="T7">
-        <v>0.007496152448993</v>
+        <v>0.004780327857071299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H8">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I8">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J8">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2513533333333333</v>
+        <v>0.022752</v>
       </c>
       <c r="N8">
-        <v>0.75406</v>
+        <v>0.068256</v>
       </c>
       <c r="O8">
-        <v>0.03667605220036371</v>
+        <v>0.003897602285935517</v>
       </c>
       <c r="P8">
-        <v>0.03667605220036371</v>
+        <v>0.003897602285935517</v>
       </c>
       <c r="Q8">
-        <v>0.1869213360822222</v>
+        <v>0.011138871072</v>
       </c>
       <c r="R8">
-        <v>1.68229202474</v>
+        <v>0.100249839648</v>
       </c>
       <c r="S8">
-        <v>0.001773541729408246</v>
+        <v>0.0001010489106960762</v>
       </c>
       <c r="T8">
-        <v>0.001773541729408245</v>
+        <v>0.0001010489106960762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H9">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I9">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J9">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>12.713628</v>
       </c>
       <c r="O9">
-        <v>0.6183668198604962</v>
+        <v>0.7259825591205727</v>
       </c>
       <c r="P9">
-        <v>0.6183668198604962</v>
+        <v>0.7259825591205727</v>
       </c>
       <c r="Q9">
-        <v>3.151537453534667</v>
+        <v>2.074769443702667</v>
       </c>
       <c r="R9">
-        <v>28.363837081812</v>
+        <v>18.672924993324</v>
       </c>
       <c r="S9">
-        <v>0.02990232844889412</v>
+        <v>0.0188217630742372</v>
       </c>
       <c r="T9">
-        <v>0.02990232844889412</v>
+        <v>0.0188217630742372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H10">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I10">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J10">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.364107333333334</v>
+        <v>1.576807</v>
       </c>
       <c r="N10">
-        <v>7.092322</v>
+        <v>4.730421</v>
       </c>
       <c r="O10">
-        <v>0.3449571279391401</v>
+        <v>0.2701198385934918</v>
       </c>
       <c r="P10">
-        <v>0.3449571279391401</v>
+        <v>0.2701198385934918</v>
       </c>
       <c r="Q10">
-        <v>1.758091271470889</v>
+        <v>0.7719694918436666</v>
       </c>
       <c r="R10">
-        <v>15.822821443238</v>
+        <v>6.947725426592999</v>
       </c>
       <c r="S10">
-        <v>0.01668107183168468</v>
+        <v>0.007003104330518103</v>
       </c>
       <c r="T10">
-        <v>0.01668107183168467</v>
+        <v>0.007003104330518103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H11">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I11">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J11">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2513533333333333</v>
+        <v>0.022752</v>
       </c>
       <c r="N11">
-        <v>0.75406</v>
+        <v>0.068256</v>
       </c>
       <c r="O11">
-        <v>0.03667605220036371</v>
+        <v>0.003897602285935517</v>
       </c>
       <c r="P11">
-        <v>0.03667605220036371</v>
+        <v>0.003897602285935517</v>
       </c>
       <c r="Q11">
-        <v>3.552303683748888</v>
+        <v>0.406218333696</v>
       </c>
       <c r="R11">
-        <v>31.97073315374</v>
+        <v>3.655965003264</v>
       </c>
       <c r="S11">
-        <v>0.03370486724901214</v>
+        <v>0.003685105955480441</v>
       </c>
       <c r="T11">
-        <v>0.03370486724901214</v>
+        <v>0.003685105955480441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H12">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I12">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J12">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>12.713628</v>
       </c>
       <c r="O12">
-        <v>0.6183668198604962</v>
+        <v>0.7259825591205727</v>
       </c>
       <c r="P12">
-        <v>0.6183668198604962</v>
+        <v>0.7259825591205727</v>
       </c>
       <c r="Q12">
-        <v>59.89267111133467</v>
+        <v>75.66380657218134</v>
       </c>
       <c r="R12">
-        <v>539.034040002012</v>
+        <v>680.9742591496321</v>
       </c>
       <c r="S12">
-        <v>0.5682719465206003</v>
+        <v>0.6864021662353917</v>
       </c>
       <c r="T12">
-        <v>0.5682719465206003</v>
+        <v>0.6864021662353917</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H13">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I13">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J13">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.364107333333334</v>
+        <v>1.576807</v>
       </c>
       <c r="N13">
-        <v>7.092322</v>
+        <v>4.730421</v>
       </c>
       <c r="O13">
-        <v>0.3449571279391401</v>
+        <v>0.2701198385934918</v>
       </c>
       <c r="P13">
-        <v>0.3449571279391401</v>
+        <v>0.2701198385934918</v>
       </c>
       <c r="Q13">
-        <v>33.41124256283756</v>
+        <v>28.15259810566933</v>
       </c>
       <c r="R13">
-        <v>300.701183065538</v>
+        <v>253.373382951024</v>
       </c>
       <c r="S13">
-        <v>0.3170116058367349</v>
+        <v>0.2553929705671258</v>
       </c>
       <c r="T13">
-        <v>0.3170116058367349</v>
+        <v>0.2553929705671259</v>
       </c>
     </row>
   </sheetData>
